--- a/TM.RestHour/Medicine/MedicineList.xlsx
+++ b/TM.RestHour/Medicine/MedicineList.xlsx
@@ -1,5 +1,220 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasenjit\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB042AE-0EA0-467B-A65C-D5EBC96D24D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Medicine" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>MedicineName</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Arnika309</t>
+  </si>
+  <si>
+    <t>Arnika310</t>
+  </si>
+  <si>
+    <t>Arnika311</t>
+  </si>
+  <si>
+    <t>Arnika312</t>
+  </si>
+  <si>
+    <t>Arnika313</t>
+  </si>
+  <si>
+    <t>Arnika314</t>
+  </si>
+  <si>
+    <t>Arnika315</t>
+  </si>
+  <si>
+    <t>Arnika316</t>
+  </si>
+  <si>
+    <t>Arnika317</t>
+  </si>
+  <si>
+    <t>Arnika318</t>
+  </si>
+  <si>
+    <t>Arnika319</t>
+  </si>
+  <si>
+    <t>Arnika320</t>
+  </si>
+  <si>
+    <t>Arnika321</t>
+  </si>
+  <si>
+    <t>Arnika322</t>
+  </si>
+  <si>
+    <t>Arnika323</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -294,6 +509,701 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>51</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TM.RestHour/Medicine/MedicineList.xlsx
+++ b/TM.RestHour/Medicine/MedicineList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasenjit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB042AE-0EA0-467B-A65C-D5EBC96D24D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="6072"/>
   </bookViews>
   <sheets>
     <sheet name="Medicine" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sl No</t>
   </si>
@@ -42,66 +41,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>50ml</t>
+    <t>a2</t>
   </si>
   <si>
-    <t>01.12.2023</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Arnika309</t>
-  </si>
-  <si>
-    <t>Arnika310</t>
-  </si>
-  <si>
-    <t>Arnika311</t>
-  </si>
-  <si>
-    <t>Arnika312</t>
-  </si>
-  <si>
-    <t>Arnika313</t>
-  </si>
-  <si>
-    <t>Arnika314</t>
-  </si>
-  <si>
-    <t>Arnika315</t>
-  </si>
-  <si>
-    <t>Arnika316</t>
-  </si>
-  <si>
-    <t>Arnika317</t>
-  </si>
-  <si>
-    <t>Arnika318</t>
-  </si>
-  <si>
-    <t>Arnika319</t>
-  </si>
-  <si>
-    <t>Arnika320</t>
-  </si>
-  <si>
-    <t>Arnika321</t>
-  </si>
-  <si>
-    <t>Arnika322</t>
-  </si>
-  <si>
-    <t>Arnika323</t>
+    <t>kolkata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -172,23 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +140,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,697 +469,558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="14"/>
+    <col min="4" max="4" width="15.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>37</v>
+      <c r="A2" s="4">
+        <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="12">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43852</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>38</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>51</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="8"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="8"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="8"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="E74" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TM.RestHour/Medicine/MedicineList.xlsx
+++ b/TM.RestHour/Medicine/MedicineList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sl No</t>
   </si>
@@ -41,10 +41,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>a2</t>
+    <t>aaj</t>
   </si>
   <si>
-    <t>kolkata</t>
+    <t>22.10.2020</t>
+  </si>
+  <si>
+    <t>kol</t>
   </si>
 </sst>
 </file>
@@ -503,19 +506,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="12">
-        <v>33</v>
+        <v>3</v>
       </c>
-      <c r="D2" s="8">
-        <v>43852</v>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/TM.RestHour/Medicine/MedicineList.xlsx
+++ b/TM.RestHour/Medicine/MedicineList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasenjit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0663814-2BA3-4609-B8F9-A4987D6815FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="6072"/>
+    <workbookView xWindow="48" yWindow="1140" windowWidth="22992" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicine" sheetId="1" r:id="rId1"/>
@@ -41,19 +42,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>aaj</t>
+    <t>BatchNo</t>
   </si>
   <si>
-    <t>22.10.2020</t>
+    <t>BatchQuantity</t>
   </si>
   <si>
-    <t>kol</t>
+    <t>PrescribedFor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
@@ -219,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -271,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -472,11 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,9 +486,12 @@
     <col min="3" max="3" width="8.88671875" style="14"/>
     <col min="4" max="4" width="15.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,527 +507,745 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="12"/>
       <c r="D3" s="8"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="13"/>
       <c r="D4" s="9"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="12"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="12"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="12"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="13"/>
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="12"/>
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="12"/>
       <c r="D10" s="8"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="12"/>
       <c r="D11" s="8"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="12"/>
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="12"/>
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="12"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="13"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="12"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="13"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="12"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="12"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="12"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="12"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="13"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="12"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="12"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="13"/>
       <c r="D30" s="9"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="12"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="12"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="12"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="12"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="12"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="12"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="12"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="12"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="12"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="13"/>
       <c r="D40" s="9"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="12"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="12"/>
       <c r="D42" s="8"/>
       <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="12"/>
       <c r="D43" s="8"/>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="12"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="1"/>
       <c r="C45" s="13"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="1"/>
       <c r="C46" s="13"/>
       <c r="D46" s="9"/>
       <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="1"/>
       <c r="C47" s="13"/>
       <c r="D47" s="9"/>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="1"/>
       <c r="C48" s="13"/>
       <c r="D48" s="9"/>
       <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="12"/>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="12"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="12"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="12"/>
       <c r="D52" s="8"/>
       <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="12"/>
       <c r="D53" s="8"/>
       <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="12"/>
       <c r="D54" s="8"/>
       <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="12"/>
       <c r="D55" s="8"/>
       <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="12"/>
       <c r="D56" s="8"/>
       <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="12"/>
       <c r="D57" s="8"/>
       <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="12"/>
       <c r="D58" s="8"/>
       <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="12"/>
       <c r="D59" s="8"/>
       <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="13"/>
       <c r="D60" s="9"/>
       <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="12"/>
       <c r="D61" s="8"/>
       <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="12"/>
       <c r="D62" s="8"/>
       <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="12"/>
       <c r="D63" s="8"/>
       <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="12"/>
       <c r="D64" s="8"/>
       <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="12"/>
       <c r="D65" s="8"/>
       <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="12"/>
       <c r="D66" s="8"/>
       <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="12"/>
       <c r="D67" s="8"/>
       <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="12"/>
       <c r="D68" s="8"/>
       <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="12"/>
       <c r="D69" s="8"/>
       <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="12"/>
       <c r="D70" s="8"/>
       <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="12"/>
       <c r="D71" s="8"/>
       <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="12"/>
       <c r="D72" s="8"/>
       <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="12"/>
       <c r="D73" s="8"/>
       <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="12"/>
       <c r="D74" s="8"/>
       <c r="E74" s="5"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TM.RestHour/Medicine/MedicineList.xlsx
+++ b/TM.RestHour/Medicine/MedicineList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasenjit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0663814-2BA3-4609-B8F9-A4987D6815FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2EAC38-BB1C-41F8-BCD8-AE5E44C9DC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="1140" windowWidth="22992" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="192" windowWidth="22620" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicine" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sl No</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>PrescribedFor</t>
+  </si>
+  <si>
+    <t>ArsenicAlbum</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>FG446P0</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -476,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +501,7 @@
     <col min="6" max="6" width="21.109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" style="14" customWidth="1"/>
     <col min="8" max="8" width="21.5546875" style="14" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -519,13 +532,27 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+      <c r="D2" s="8">
+        <v>47148</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12">
+        <v>69</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
